--- a/medicine/Psychotrope/A_Brasileira_(Porto)/A_Brasileira_(Porto).xlsx
+++ b/medicine/Psychotrope/A_Brasileira_(Porto)/A_Brasileira_(Porto).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 A Brasileira est l'un des cafés les plus emblématiques de la ville de Porto, au Portugal, situé dans la rua Sá da Bandeira dans le centre de la ville (a Baixa).
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'établissement a été fondé par Adrian Teles, pharmacien de Porto, qui jeune homme décide de tenter sa chance et émigre au Brésil à la fin du XIXe siècle où il se consacre au commerce du café et grâce auquel il s’enrichit.
 De retour à Porto, il monte une torréfaction et fonde A Brasileira (« La Brésilienne ») qui ouvre le 4 mai 1903, pour servir le café à la tasse. À cette époque, boire du café en public n'était pas encore devenu une habitude. Adriano Teles pour promouvoir son produit offre pendant les premières années de A Brasileira, une tasse de café gratuitement pour l'achat d’un sac de café en grain.
